--- a/program_directory/interpreterAccounting/海螺水泥：2016年年度报告.xlsx
+++ b/program_directory/interpreterAccounting/海螺水泥：2016年年度报告.xlsx
@@ -5,17 +5,19 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="12600"/>
+    <workbookView windowWidth="27720" windowHeight="12600" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="普通股现金分红情况表" sheetId="3" r:id="rId1"/>
+    <sheet name="合并所有者权益变动表" sheetId="4" r:id="rId2"/>
+    <sheet name="主营业务分行业经营情况" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="89">
   <si>
     <t>年度</t>
   </si>
@@ -69,6 +71,219 @@
   </si>
   <si>
     <t>31.06%</t>
+  </si>
+  <si>
+    <t>项目</t>
+  </si>
+  <si>
+    <t>附注</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>归属于母公司股东权益</t>
+  </si>
+  <si>
+    <t>少数 股东权益</t>
+  </si>
+  <si>
+    <t>股东权益合计</t>
+  </si>
+  <si>
+    <t>股本</t>
+  </si>
+  <si>
+    <t>资本公积</t>
+  </si>
+  <si>
+    <t>其他综合收益</t>
+  </si>
+  <si>
+    <t>盈余公积</t>
+  </si>
+  <si>
+    <t>未分配利润</t>
+  </si>
+  <si>
+    <t>一、本年年初余额</t>
+  </si>
+  <si>
+    <t>5,299,302,579</t>
+  </si>
+  <si>
+    <t>10,684,321,525</t>
+  </si>
+  <si>
+    <t>725,005,636</t>
+  </si>
+  <si>
+    <t>2,649,651,290</t>
+  </si>
+  <si>
+    <t>51,133,606,916</t>
+  </si>
+  <si>
+    <t>3,419,682,762</t>
+  </si>
+  <si>
+    <t>73,911,570,708</t>
+  </si>
+  <si>
+    <t>二、本年增减变动金额     (减少以“-”号     填列)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>-134,183,493</t>
+  </si>
+  <si>
+    <t>6,251,216,674</t>
+  </si>
+  <si>
+    <t>270,167,593</t>
+  </si>
+  <si>
+    <t>6,387,200,774</t>
+  </si>
+  <si>
+    <t>(一) 综合收益总额</t>
+  </si>
+  <si>
+    <t>8,529,916,783</t>
+  </si>
+  <si>
+    <t>430,591,723</t>
+  </si>
+  <si>
+    <t>8,826,325,013</t>
+  </si>
+  <si>
+    <t>(二) 股东投入和   减少资本</t>
+  </si>
+  <si>
+    <t>65,063,370</t>
+  </si>
+  <si>
+    <t>1. 股东投入的     资本</t>
+  </si>
+  <si>
+    <t>2. 收购子公司     增加的     少数股东     权益</t>
+  </si>
+  <si>
+    <t>3. 购买子公司     少数股权</t>
+  </si>
+  <si>
+    <t>(三) 利润分配</t>
+  </si>
+  <si>
+    <t>五、36</t>
+  </si>
+  <si>
+    <t>-2,278,700,109</t>
+  </si>
+  <si>
+    <t>-225,487,500</t>
+  </si>
+  <si>
+    <t>-2,504,187,609</t>
+  </si>
+  <si>
+    <t>1. 提取盈余     公积</t>
+  </si>
+  <si>
+    <t>2. 对股东的     分配</t>
+  </si>
+  <si>
+    <t>3. 非全资     子公司     股利</t>
+  </si>
+  <si>
+    <t>三、本年年末余额</t>
+  </si>
+  <si>
+    <t>590,822,143</t>
+  </si>
+  <si>
+    <t>57,384,823,590</t>
+  </si>
+  <si>
+    <t>3,689,850,355</t>
+  </si>
+  <si>
+    <t>8 0,298,771,482</t>
+  </si>
+  <si>
+    <t>分行业</t>
+  </si>
+  <si>
+    <t>主营业务</t>
+  </si>
+  <si>
+    <t>毛利率(%)</t>
+  </si>
+  <si>
+    <t>毛利率比上年</t>
+  </si>
+  <si>
+    <t>收入</t>
+  </si>
+  <si>
+    <t>成本</t>
+  </si>
+  <si>
+    <t>同期增减</t>
+  </si>
+  <si>
+    <t>（千元）</t>
+  </si>
+  <si>
+    <t>（百分点）</t>
+  </si>
+  <si>
+    <t>42.5级水泥</t>
+  </si>
+  <si>
+    <t>30,420,375</t>
+  </si>
+  <si>
+    <t>20,651,869</t>
+  </si>
+  <si>
+    <t>32.5级水泥</t>
+  </si>
+  <si>
+    <t>17,271,491</t>
+  </si>
+  <si>
+    <t>10,816,743</t>
+  </si>
+  <si>
+    <t>熟料</t>
+  </si>
+  <si>
+    <t>6,776,176</t>
+  </si>
+  <si>
+    <t>5,156,812</t>
+  </si>
+  <si>
+    <t>骨料及石子</t>
+  </si>
+  <si>
+    <t>362,595</t>
+  </si>
+  <si>
+    <t>195,368</t>
+  </si>
+  <si>
+    <t>合计</t>
+  </si>
+  <si>
+    <t>54,830,637</t>
+  </si>
+  <si>
+    <t>36,820,792</t>
   </si>
 </sst>
 </file>
@@ -76,17 +291,45 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -98,6 +341,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -106,22 +371,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,75 +396,16 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,6 +419,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -233,6 +441,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -243,187 +465,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,8 +662,37 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,31 +712,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,175 +756,161 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1036,86 +1259,673 @@
   <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8.88888888888889" style="2"/>
-    <col min="2" max="2" width="11.9481481481481" style="2" customWidth="true"/>
-    <col min="3" max="3" width="8.88888888888889" style="2"/>
-    <col min="4" max="4" width="11.8888888888889" style="2"/>
-    <col min="5" max="5" width="12.7777777777778" style="2" customWidth="true"/>
-    <col min="6" max="16384" width="8.88888888888889" style="2"/>
+    <col min="1" max="1" width="8.88888888888889" style="1"/>
+    <col min="2" max="2" width="11.9481481481481" style="1" customWidth="true"/>
+    <col min="3" max="3" width="8.88888888888889" style="1"/>
+    <col min="4" max="4" width="11.8888888888889" style="1"/>
+    <col min="5" max="5" width="12.7777777777778" style="1" customWidth="true"/>
+    <col min="6" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="49.5" spans="1:5">
+    <row r="1" s="3" customFormat="true" ht="49.5" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="38.4444444444444" style="1" customWidth="true"/>
+    <col min="2" max="2" width="6.55555555555556" style="1" customWidth="true"/>
+    <col min="3" max="5" width="8.88888888888889" style="1"/>
+    <col min="6" max="6" width="12.8888888888889" style="1" customWidth="true"/>
+    <col min="7" max="7" width="14" style="1" customWidth="true"/>
+    <col min="8" max="8" width="12.8888888888889" style="1" customWidth="true"/>
+    <col min="9" max="9" width="14.4444444444444" style="1" customWidth="true"/>
+    <col min="10" max="16384" width="8.88888888888889" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9.66666666666667" style="1" customWidth="true"/>
+    <col min="2" max="4" width="8.88888888888889" style="1"/>
+    <col min="5" max="5" width="11.3333333333333" style="1" customWidth="true"/>
+    <col min="6" max="16384" width="8.88888888888889" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5">
+      <c r="B2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
+      <c r="A4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="1">
+        <v>32.11</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="1">
+        <v>37.37</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6.13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="1">
+        <v>23.9</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="1">
+        <v>46.12</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="1">
+        <v>32.85</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4.76</v>
       </c>
     </row>
   </sheetData>
